--- a/datas/loantest.xlsx
+++ b/datas/loantest.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>case_id</t>
   </si>
@@ -119,25 +119,22 @@
     <t>传一个登录后的session</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1118782,"regname":"妖孽","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18800000001","leaveamount":"10210.00","type":"1","regtime":"2019-02-16 21:17:48.0"},"msg":"充值成功"}</t>
+    <t>正常登录+正确金额的充值</t>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"18800000001","amount":"100"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1118782,"regname":"妖孽","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18800000001","leaveamount":"10110.00","type":"1","regtime":"2019-02-16 21:17:48.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
   </si>
   <si>
     <t>FAIlED</t>
-  </si>
-  <si>
-    <t>正常登录+正确金额的充值</t>
-  </si>
-  <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"18800000001","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1118782,"regname":"妖孽","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18800000001","leaveamount":"10110.00","type":"1","regtime":"2019-02-16 21:17:48.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
   </si>
   <si>
     <t>正常登录+空的充值金额</t>
@@ -966,10 +963,10 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="3" s="3" spans="1:8">
@@ -977,25 +974,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="4" s="3" spans="1:8">
@@ -1003,19 +1000,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1082,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1108,22 +1111,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1134,22 +1137,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1217,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1243,22 +1246,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1269,22 +1272,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1295,16 +1298,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>28</v>
@@ -1321,22 +1324,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
